--- a/biology/Botanique/Lustgarten/Lustgarten.xlsx
+++ b/biology/Botanique/Lustgarten/Lustgarten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Lustgarten [ˈlʊstˌɡaʁtn̩][1] (« jardin d'agrément ») est un parc sur l'île aux Musées dans le centre de Berlin, près de du château de Berlin (Berliner Stadtschloss) dont il faisait partie à l'origine et à proximité de l'avenue Unter den Linden. Suivant les époques, il a servi pour les parades militaires, les ralliements de masse ou comme jardin public.
+Le Lustgarten [ˈlʊstˌɡaʁtn̩] (« jardin d'agrément ») est un parc sur l'île aux Musées dans le centre de Berlin, près de du château de Berlin (Berliner Stadtschloss) dont il faisait partie à l'origine et à proximité de l'avenue Unter den Linden. Suivant les époques, il a servi pour les parades militaires, les ralliements de masse ou comme jardin public.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est situé au nord du quartier historique de Cölln, sur l'île de la Spree entre la rivière Sprée et le Kupfergraben. La place est bordée de l'Altes Museum au nord et de la cathédrale de Berlin à l'est ; au sud, de l'autre côté de la rue Am Lustgarten (Bundesstraße 2 et 5), se trouve le Forum Humboldt dans le château de Berlin.
 </t>
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Moyen Âge et au début de l'ère moderne, la pointe nord de l'île était un endroit humide et marécageux. À partir de 1443, l'électeur Frédéric II de Brandebourg fit construire le premier château au nord de la ville de Cölln. Un jardin potager à côté de la résidence a été aménagé sous le règne de l'électeur Jean II Georges en 1573. Le terrain fut dévasté pendant les désordres de la guerre de Trente Ans.
 Après la guerre, le « Grand Électeur » Frédéric-Guillaume Ier fit rétablir les espaces verts en style hollandais, probablement selon les plans de son architecte Johann Gregor Memhardt. Le jardin privé du prince-électeur, nommé Kurfürstlicher Lustgarten depuis 1646 connut une fortune diverse au fil du temps. À l'origine, l'espace intégra des villas et pavillons, une serre où des pommes de terre sont cultivées pour la première fois, et également un court de jeu de paume. Peu après cependant, une partie des installations fut démolie afin de céder la place à la forteresse de Berlin. 
